--- a/data/georgia_census/racha/ambrolauri/age_dependency.xlsx
+++ b/data/georgia_census/racha/ambrolauri/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B07CAD55-7AA2-4690-975C-19036292C31D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7116AE42-7C82-4A99-B976-C2BB1B9F999D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{389CAA9F-1A29-4C72-8190-334D5F1D8D0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{418FAD56-9E7E-409B-B500-83A15C09724C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD0ECF26-8C39-4502-9D77-0289CE6BA37D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04C25911-1672-4A5A-BCB2-55B91EC593E0}"/>
 </file>